--- a/GTB_Thesaurus_Demo.xlsx
+++ b/GTB_Thesaurus_Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IceNight\Desktop\个人事务\稻花香里说丰年，听取 W A 声一片\Python Programming Files\GTB-Solver\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C22895-8346-481D-AF99-415C12A239AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CC5113-51DC-4A43-BC87-056A40AA2C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="1670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="1669">
   <si>
     <t>TNT</t>
   </si>
@@ -2527,10 +2527,6 @@
   </si>
   <si>
     <t>Triangle</t>
-  </si>
-  <si>
-    <t>Crowdin ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>English</t>
@@ -4256,10 +4252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日本語</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5705,30 +5697,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>輕盈的</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>軽い</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>蜥蜴</t>
     </r>
   </si>
@@ -6978,18 +6946,6 @@
         <charset val="134"/>
       </rPr>
       <t>鐵達尼號</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>巨大な</t>
     </r>
   </si>
   <si>
@@ -7704,6 +7660,47 @@
       <t>。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thesaurus ID</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日本語</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>燈</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>タイタニック</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -7854,7 +7851,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7864,9 +7861,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -8200,54 +8194,54 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1391</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1398</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1100</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1100</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1100</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1100</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>1100</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>1399</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1401</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>164</v>
@@ -8277,33 +8271,33 @@
         <v/>
       </c>
       <c r="L2" s="4" t="str">
-        <f t="shared" ref="L2:L65" si="0">IF(G2&amp;H2&amp;I2&amp;J2&amp;K2="","-",G2&amp;H2&amp;I2&amp;J2&amp;K2)</f>
+        <f t="shared" ref="L2:L33" si="0">IF(G2&amp;H2&amp;I2&amp;J2&amp;K2="","-",G2&amp;H2&amp;I2&amp;J2&amp;K2)</f>
         <v>-</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>1669</v>
-      </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
+      <c r="N2" s="6" t="s">
+        <v>1664</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>1402</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1404</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>174</v>
@@ -8336,28 +8330,28 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>1405</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1407</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>180</v>
@@ -8390,28 +8384,28 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>1408</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>1410</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>187</v>
@@ -8444,28 +8438,28 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>1411</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>1413</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
@@ -8498,28 +8492,28 @@
         <f t="shared" si="0"/>
         <v>Velo</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>200</v>
@@ -8552,28 +8546,28 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>207</v>
@@ -8606,28 +8600,28 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>1417</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>1418</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>1419</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>211</v>
@@ -8660,28 +8654,28 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>20</v>
@@ -8714,28 +8708,28 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>21</v>
@@ -8770,17 +8764,17 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>1423</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>1424</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>1425</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>798</v>
@@ -8815,17 +8809,17 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>1426</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1427</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>1428</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>800</v>
@@ -8860,17 +8854,17 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>241</v>
@@ -8905,17 +8899,17 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>1431</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>1433</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>803</v>
@@ -8950,17 +8944,17 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>159</v>
@@ -8995,17 +8989,17 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>261</v>
@@ -9040,17 +9034,17 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>1438</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>1439</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>1440</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>271</v>
@@ -9085,17 +9079,17 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>1441</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>1442</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>1443</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>279</v>
@@ -9130,17 +9124,17 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>1444</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>1446</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>285</v>
@@ -9175,17 +9169,17 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>1447</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>1449</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>290</v>
@@ -9220,17 +9214,17 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>1450</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>1451</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>1452</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>167</v>
@@ -9265,17 +9259,17 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>1453</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>1454</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>1455</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>298</v>
@@ -9310,17 +9304,17 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>308</v>
@@ -9355,17 +9349,17 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>1458</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>1460</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>132</v>
@@ -9400,17 +9394,17 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>1461</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>1462</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>1463</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>320</v>
@@ -9445,17 +9439,17 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>1464</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>1466</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>329</v>
@@ -9490,17 +9484,17 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>1467</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>1468</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>1469</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>41</v>
@@ -9535,17 +9529,17 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>1471</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>1472</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>338</v>
@@ -9580,17 +9574,17 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>1473</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>1474</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>1475</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>43</v>
@@ -9625,17 +9619,17 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>1476</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>1478</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>45</v>
@@ -9670,17 +9664,17 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>1479</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>1480</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>1481</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>48</v>
@@ -9715,17 +9709,17 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>1482</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>1483</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>1484</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>364</v>
@@ -9760,17 +9754,17 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>375</v>
@@ -9800,22 +9794,22 @@
         <v/>
       </c>
       <c r="L34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L34:L65" si="1">IF(G34&amp;H34&amp;I34&amp;J34&amp;K34="","-",G34&amp;H34&amp;I34&amp;J34&amp;K34)</f>
         <v>-</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>378</v>
@@ -9845,22 +9839,22 @@
         <v/>
       </c>
       <c r="L35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>1489</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>1490</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>1491</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>387</v>
@@ -9890,22 +9884,22 @@
         <v/>
       </c>
       <c r="L36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Kam</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>391</v>
@@ -9935,22 +9929,22 @@
         <v/>
       </c>
       <c r="L37" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Borsa</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>1494</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>1495</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>1496</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>53</v>
@@ -9980,22 +9974,22 @@
         <v/>
       </c>
       <c r="L38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>123</v>
@@ -10025,22 +10019,22 @@
         <v/>
       </c>
       <c r="L39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>1499</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>1500</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>1501</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>56</v>
@@ -10070,22 +10064,22 @@
         <v/>
       </c>
       <c r="L40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>1502</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>1503</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>1504</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>428</v>
@@ -10115,22 +10109,22 @@
         <v/>
       </c>
       <c r="L41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>1505</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>1507</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>434</v>
@@ -10160,22 +10154,22 @@
         <v/>
       </c>
       <c r="L42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>1508</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>1509</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>1510</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>439</v>
@@ -10205,22 +10199,22 @@
         <v/>
       </c>
       <c r="L43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Kajak</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>1511</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>1513</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>127</v>
@@ -10250,22 +10244,22 @@
         <v/>
       </c>
       <c r="L44" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>1514</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>1516</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>453</v>
@@ -10295,22 +10289,22 @@
         <v/>
       </c>
       <c r="L45" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>1518</v>
+        <v>1667</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>819</v>
@@ -10340,22 +10334,22 @@
         <v/>
       </c>
       <c r="L46" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>469</v>
@@ -10385,22 +10379,22 @@
         <v/>
       </c>
       <c r="L47" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>477</v>
@@ -10430,22 +10424,22 @@
         <v/>
       </c>
       <c r="L48" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>479</v>
@@ -10475,22 +10469,22 @@
         <v/>
       </c>
       <c r="L49" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Posta</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>148</v>
@@ -10520,22 +10514,22 @@
         <v/>
       </c>
       <c r="L50" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>493</v>
@@ -10565,22 +10559,22 @@
         <v/>
       </c>
       <c r="L51" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="6">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>68</v>
@@ -10610,22 +10604,22 @@
         <v/>
       </c>
       <c r="L52" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>505</v>
@@ -10655,22 +10649,22 @@
         <v/>
       </c>
       <c r="L53" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Kino</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="6">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>512</v>
@@ -10700,22 +10694,22 @@
         <v/>
       </c>
       <c r="L54" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="6">
+      <c r="A55" s="5">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>516</v>
@@ -10745,22 +10739,22 @@
         <v/>
       </c>
       <c r="L55" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Birou</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="6">
+      <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>73</v>
@@ -10790,22 +10784,22 @@
         <v/>
       </c>
       <c r="L56" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quadro</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="6">
+      <c r="A57" s="5">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>74</v>
@@ -10835,22 +10829,22 @@
         <v/>
       </c>
       <c r="L57" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="6">
+      <c r="A58" s="5">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>113</v>
@@ -10880,22 +10874,22 @@
         <v/>
       </c>
       <c r="L58" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="6">
+      <c r="A59" s="5">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>78</v>
@@ -10925,22 +10919,22 @@
         <v/>
       </c>
       <c r="L59" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Torta</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="6">
+      <c r="A60" s="5">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>80</v>
@@ -10970,22 +10964,22 @@
         <v/>
       </c>
       <c r="L60" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="6">
+      <c r="A61" s="5">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>554</v>
@@ -11015,22 +11009,22 @@
         <v/>
       </c>
       <c r="L61" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="6">
+      <c r="A62" s="5">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>561</v>
@@ -11060,22 +11054,22 @@
         <v/>
       </c>
       <c r="L62" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="6">
+      <c r="A63" s="5">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>565</v>
@@ -11105,22 +11099,22 @@
         <v/>
       </c>
       <c r="L63" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="6">
+      <c r="A64" s="5">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>581</v>
@@ -11150,22 +11144,22 @@
         <v/>
       </c>
       <c r="L64" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Raton</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="6">
+      <c r="A65" s="5">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>582</v>
@@ -11195,22 +11189,22 @@
         <v/>
       </c>
       <c r="L65" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Circuito</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="6">
+      <c r="A66" s="5">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>593</v>
@@ -11240,22 +11234,22 @@
         <v/>
       </c>
       <c r="L66" s="4" t="str">
-        <f t="shared" ref="L66:L101" si="1">IF(G66&amp;H66&amp;I66&amp;J66&amp;K66="","-",G66&amp;H66&amp;I66&amp;J66&amp;K66)</f>
+        <f t="shared" ref="L66:L77" si="2">IF(G66&amp;H66&amp;I66&amp;J66&amp;K66="","-",G66&amp;H66&amp;I66&amp;J66&amp;K66)</f>
         <v>-</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="6">
+      <c r="A67" s="5">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>601</v>
@@ -11285,22 +11279,22 @@
         <v/>
       </c>
       <c r="L67" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="6">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>616</v>
@@ -11330,22 +11324,22 @@
         <v/>
       </c>
       <c r="L68" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="6">
+      <c r="A69" s="5">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>162</v>
@@ -11375,22 +11369,22 @@
         <v/>
       </c>
       <c r="L69" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="6">
+      <c r="A70" s="5">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>627</v>
@@ -11420,22 +11414,22 @@
         <v/>
       </c>
       <c r="L70" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="6">
+      <c r="A71" s="5">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>115</v>
@@ -11465,22 +11459,22 @@
         <v/>
       </c>
       <c r="L71" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="6">
+      <c r="A72" s="5">
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>642</v>
@@ -11510,22 +11504,22 @@
         <v/>
       </c>
       <c r="L72" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="6">
+      <c r="A73" s="5">
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>644</v>
@@ -11555,22 +11549,22 @@
         <v/>
       </c>
       <c r="L73" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Fortau</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="6">
+      <c r="A74" s="5">
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>828</v>
@@ -11600,22 +11594,22 @@
         <v/>
       </c>
       <c r="L74" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Tobogan</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="6">
+      <c r="A75" s="5">
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>656</v>
@@ -11645,22 +11639,22 @@
         <v/>
       </c>
       <c r="L75" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="6">
+      <c r="A76" s="5">
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>665</v>
@@ -11690,22 +11684,22 @@
         <v/>
       </c>
       <c r="L76" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="6">
+      <c r="A77" s="5">
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>670</v>
@@ -11735,22 +11729,22 @@
         <v/>
       </c>
       <c r="L77" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="6">
+      <c r="A78" s="5">
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>676</v>
@@ -11785,17 +11779,17 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="6">
+      <c r="A79" s="5">
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>684</v>
@@ -11825,22 +11819,22 @@
         <v/>
       </c>
       <c r="L79" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L79:L101" si="3">IF(G79&amp;H79&amp;I79&amp;J79&amp;K79="","-",G79&amp;H79&amp;I79&amp;J79&amp;K79)</f>
         <v>-</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="6">
+      <c r="A80" s="5">
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>696</v>
@@ -11870,22 +11864,22 @@
         <v/>
       </c>
       <c r="L80" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="6">
+      <c r="A81" s="5">
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>697</v>
@@ -11915,22 +11909,22 @@
         <v/>
       </c>
       <c r="L81" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="6">
+      <c r="A82" s="5">
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>709</v>
@@ -11960,22 +11954,22 @@
         <v/>
       </c>
       <c r="L82" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" s="6">
+      <c r="A83" s="5">
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>119</v>
@@ -12005,22 +11999,22 @@
         <v/>
       </c>
       <c r="L83" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" s="6">
+      <c r="A84" s="5">
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>98</v>
@@ -12050,22 +12044,22 @@
         <v/>
       </c>
       <c r="L84" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="6">
+      <c r="A85" s="5">
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>1625</v>
+        <v>1668</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>787</v>
@@ -12095,22 +12089,22 @@
         <v/>
       </c>
       <c r="L85" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="6">
+      <c r="A86" s="5">
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>101</v>
@@ -12140,22 +12134,22 @@
         <v/>
       </c>
       <c r="L86" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Joben</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" s="6">
+      <c r="A87" s="5">
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>740</v>
@@ -12185,22 +12179,22 @@
         <v/>
       </c>
       <c r="L87" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" s="6">
+      <c r="A88" s="5">
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>747</v>
@@ -12230,22 +12224,22 @@
         <v/>
       </c>
       <c r="L88" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Vogn</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89" s="6">
+      <c r="A89" s="5">
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>750</v>
@@ -12275,22 +12269,22 @@
         <v/>
       </c>
       <c r="L89" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Banheira</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A90" s="6">
+      <c r="A90" s="5">
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>794</v>
@@ -12320,22 +12314,22 @@
         <v/>
       </c>
       <c r="L90" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A91" s="6">
+      <c r="A91" s="5">
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>1641</v>
+        <v>1636</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>106</v>
@@ -12365,22 +12359,22 @@
         <v/>
       </c>
       <c r="L91" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Pung</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A92" s="6">
+      <c r="A92" s="5">
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>772</v>
@@ -12410,22 +12404,22 @@
         <v/>
       </c>
       <c r="L92" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Val</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A93" s="6">
+      <c r="A93" s="5">
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>1645</v>
+        <v>1640</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>1646</v>
+        <v>1641</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>774</v>
@@ -12455,22 +12449,22 @@
         <v/>
       </c>
       <c r="L93" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A94" s="6">
+      <c r="A94" s="5">
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>780</v>
@@ -12500,22 +12494,22 @@
         <v/>
       </c>
       <c r="L94" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A95" s="6">
+      <c r="A95" s="5">
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>782</v>
@@ -12545,22 +12539,22 @@
         <v/>
       </c>
       <c r="L95" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A96" s="6">
+      <c r="A96" s="5">
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>783</v>
@@ -12590,22 +12584,22 @@
         <v/>
       </c>
       <c r="L96" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A97" s="6">
+      <c r="A97" s="5">
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>784</v>
@@ -12635,22 +12629,22 @@
         <v/>
       </c>
       <c r="L97" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A98" s="6">
+      <c r="A98" s="5">
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>785</v>
@@ -12680,22 +12674,22 @@
         <v/>
       </c>
       <c r="L98" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A99" s="6">
+      <c r="A99" s="5">
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>1663</v>
+        <v>1658</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>786</v>
@@ -12725,22 +12719,22 @@
         <v/>
       </c>
       <c r="L99" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A100" s="6">
+      <c r="A100" s="5">
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>1665</v>
+        <v>1660</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>1666</v>
+        <v>1661</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>136</v>
@@ -12770,22 +12764,22 @@
         <v/>
       </c>
       <c r="L100" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A101" s="6">
+      <c r="A101" s="5">
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>1667</v>
+        <v>1662</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>1668</v>
+        <v>1663</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>1668</v>
+        <v>1663</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>112</v>
@@ -12815,7 +12809,7 @@
         <v/>
       </c>
       <c r="L101" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -12830,7 +12824,6 @@
     <row r="470" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="471" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:L1686" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="N2:V10"/>
   </mergeCells>
@@ -12859,28 +12852,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1392</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1393</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1394</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>1395</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>1396</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -12888,10 +12881,10 @@
         <v>164</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>35</v>
@@ -12905,10 +12898,10 @@
         <v>166</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>189</v>
@@ -12922,7 +12915,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -12939,10 +12932,10 @@
         <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -12956,10 +12949,10 @@
         <v>169</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>224</v>
@@ -12973,10 +12966,10 @@
         <v>170</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>227</v>
@@ -12996,10 +12989,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>223</v>
@@ -13013,10 +13006,10 @@
         <v>174</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>810</v>
@@ -13030,10 +13023,10 @@
         <v>175</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>184</v>
@@ -13050,10 +13043,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -13067,7 +13060,7 @@
         <v>180</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>176</v>
@@ -13090,10 +13083,10 @@
         <v>181</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>385</v>
@@ -13107,10 +13100,10 @@
         <v>182</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>184</v>
@@ -13127,7 +13120,7 @@
         <v>183</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>177</v>
@@ -13147,7 +13140,7 @@
         <v>186</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>178</v>
@@ -13173,10 +13166,10 @@
         <v>187</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
@@ -13190,10 +13183,10 @@
         <v>795</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>83</v>
@@ -13207,10 +13200,10 @@
         <v>197</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>798</v>
@@ -13227,10 +13220,10 @@
         <v>198</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>188</v>
@@ -13244,10 +13237,10 @@
         <v>200</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>296</v>
@@ -13261,10 +13254,10 @@
         <v>157</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>550</v>
@@ -13278,10 +13271,10 @@
         <v>797</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>550</v>
@@ -13295,10 +13288,10 @@
         <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>173</v>
@@ -13315,10 +13308,10 @@
         <v>208</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>50</v>
@@ -13332,10 +13325,10 @@
         <v>209</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>300</v>
@@ -13349,10 +13342,10 @@
         <v>210</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>21</v>
@@ -13369,7 +13362,7 @@
         <v>212</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>228</v>
@@ -13386,10 +13379,10 @@
         <v>213</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>303</v>
@@ -13403,10 +13396,10 @@
         <v>214</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>126</v>
@@ -13420,10 +13413,10 @@
         <v>114</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>158</v>
@@ -13440,7 +13433,7 @@
         <v>216</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>799</v>
@@ -13457,10 +13450,10 @@
         <v>219</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>460</v>
@@ -13474,10 +13467,10 @@
         <v>220</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -13491,10 +13484,10 @@
         <v>221</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>711</v>
@@ -13508,10 +13501,10 @@
         <v>20</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>243</v>
@@ -13525,10 +13518,10 @@
         <v>229</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>244</v>
@@ -13545,10 +13538,10 @@
         <v>788</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>796</v>
@@ -13565,10 +13558,10 @@
         <v>23</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>248</v>
@@ -13582,10 +13575,10 @@
         <v>230</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>383</v>
@@ -13596,10 +13589,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>1127</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1128</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>256</v>
@@ -13616,10 +13609,10 @@
         <v>232</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>582</v>
@@ -13633,10 +13626,10 @@
         <v>800</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>281</v>
@@ -13650,7 +13643,7 @@
         <v>129</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>276</v>
@@ -13667,7 +13660,7 @@
         <v>801</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>279</v>
@@ -13684,10 +13677,10 @@
         <v>239</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>609</v>
@@ -13704,7 +13697,7 @@
         <v>24</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>29</v>
@@ -13721,7 +13714,7 @@
         <v>139</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>286</v>
@@ -13738,10 +13731,10 @@
         <v>241</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>714</v>
@@ -13755,7 +13748,7 @@
         <v>242</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>295</v>
@@ -13772,10 +13765,10 @@
         <v>802</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>238</v>
@@ -13789,10 +13782,10 @@
         <v>246</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>410</v>
@@ -13806,10 +13799,10 @@
         <v>803</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>36</v>
@@ -13823,10 +13816,10 @@
         <v>250</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>399</v>
@@ -13840,10 +13833,10 @@
         <v>251</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>497</v>
@@ -13857,10 +13850,10 @@
         <v>252</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>38</v>
@@ -13874,10 +13867,10 @@
         <v>253</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>677</v>
@@ -13894,10 +13887,10 @@
         <v>140</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>265</v>
@@ -13911,10 +13904,10 @@
         <v>257</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>448</v>
@@ -13931,10 +13924,10 @@
         <v>258</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>447</v>
@@ -13948,10 +13941,10 @@
         <v>131</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>328</v>
@@ -13968,7 +13961,7 @@
         <v>260</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>44</v>
@@ -13985,10 +13978,10 @@
         <v>268</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>288</v>
@@ -14002,10 +13995,10 @@
         <v>804</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>77</v>
@@ -14019,10 +14012,10 @@
         <v>269</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>77</v>
@@ -14036,7 +14029,7 @@
         <v>270</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>46</v>
@@ -14053,10 +14046,10 @@
         <v>271</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>16</v>
@@ -14070,10 +14063,10 @@
         <v>805</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>310</v>
@@ -14087,10 +14080,10 @@
         <v>273</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>366</v>
@@ -14104,10 +14097,10 @@
         <v>28</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>368</v>
@@ -14121,10 +14114,10 @@
         <v>806</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>7</v>
@@ -14138,10 +14131,10 @@
         <v>277</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>380</v>
@@ -14155,7 +14148,7 @@
         <v>280</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>52</v>
@@ -14172,10 +14165,10 @@
         <v>283</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>244</v>
@@ -14189,7 +14182,7 @@
         <v>37</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>415</v>
@@ -14206,10 +14199,10 @@
         <v>287</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>71</v>
@@ -14223,7 +14216,7 @@
         <v>289</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>146</v>
@@ -14240,10 +14233,10 @@
         <v>807</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>821</v>
@@ -14257,10 +14250,10 @@
         <v>293</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>47</v>
@@ -14277,10 +14270,10 @@
         <v>294</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>165</v>
@@ -14294,10 +14287,10 @@
         <v>809</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>190</v>
@@ -14311,10 +14304,10 @@
         <v>299</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>233</v>
@@ -14331,10 +14324,10 @@
         <v>301</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>272</v>
@@ -14351,10 +14344,10 @@
         <v>302</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>26</v>
@@ -14368,10 +14361,10 @@
         <v>304</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>199</v>
@@ -14385,7 +14378,7 @@
         <v>33</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>440</v>
@@ -14402,10 +14395,10 @@
         <v>305</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>262</v>
@@ -14419,10 +14412,10 @@
         <v>306</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>613</v>
@@ -14436,10 +14429,10 @@
         <v>34</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>143</v>
@@ -14453,10 +14446,10 @@
         <v>307</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>247</v>
@@ -14473,10 +14466,10 @@
         <v>308</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>195</v>
@@ -14496,10 +14489,10 @@
         <v>309</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>30</v>
@@ -14513,10 +14506,10 @@
         <v>310</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>397</v>
@@ -14530,10 +14523,10 @@
         <v>311</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>203</v>
@@ -14550,10 +14543,10 @@
         <v>312</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>291</v>
@@ -14567,10 +14560,10 @@
         <v>316</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>805</v>
@@ -14584,10 +14577,10 @@
         <v>317</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>742</v>
@@ -14601,10 +14594,10 @@
         <v>318</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>449</v>
@@ -14618,10 +14611,10 @@
         <v>39</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>365</v>
@@ -14635,10 +14628,10 @@
         <v>319</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>451</v>
@@ -14652,10 +14645,10 @@
         <v>321</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>142</v>
@@ -14669,10 +14662,10 @@
         <v>322</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>19</v>
@@ -14689,7 +14682,7 @@
         <v>383</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>231</v>
@@ -14703,10 +14696,10 @@
         <v>323</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>204</v>
@@ -14720,10 +14713,10 @@
         <v>324</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>458</v>
@@ -14737,10 +14730,10 @@
         <v>325</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>196</v>
@@ -14760,10 +14753,10 @@
         <v>326</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>12</v>
@@ -14777,10 +14770,10 @@
         <v>327</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>640</v>
@@ -14794,10 +14787,10 @@
         <v>329</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>60</v>
@@ -14811,10 +14804,10 @@
         <v>331</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>163</v>
@@ -14828,10 +14821,10 @@
         <v>332</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>371</v>
@@ -14845,10 +14838,10 @@
         <v>334</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>62</v>
@@ -14862,10 +14855,10 @@
         <v>335</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>813</v>
@@ -14882,10 +14875,10 @@
         <v>336</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>660</v>
@@ -14899,10 +14892,10 @@
         <v>337</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>650</v>
@@ -14916,10 +14909,10 @@
         <v>125</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>296</v>
@@ -14933,7 +14926,7 @@
         <v>342</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>506</v>
@@ -14953,7 +14946,7 @@
         <v>64</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>501</v>
@@ -14967,10 +14960,10 @@
         <v>344</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>264</v>
@@ -14984,10 +14977,10 @@
         <v>345</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>70</v>
@@ -15001,10 +14994,10 @@
         <v>347</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>203</v>
@@ -15018,10 +15011,10 @@
         <v>348</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>687</v>
@@ -15035,10 +15028,10 @@
         <v>349</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>91</v>
@@ -15052,10 +15045,10 @@
         <v>45</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>276</v>
@@ -15069,10 +15062,10 @@
         <v>350</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>191</v>
@@ -15089,10 +15082,10 @@
         <v>352</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>326</v>
@@ -15103,10 +15096,10 @@
         <v>353</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>480</v>
@@ -15120,10 +15113,10 @@
         <v>355</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>333</v>
@@ -15137,10 +15130,10 @@
         <v>356</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>171</v>
@@ -15154,10 +15147,10 @@
         <v>358</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>354</v>
@@ -15171,10 +15164,10 @@
         <v>362</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>84</v>
@@ -15188,10 +15181,10 @@
         <v>363</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>426</v>
@@ -15205,10 +15198,10 @@
         <v>160</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>141</v>
@@ -15225,10 +15218,10 @@
         <v>49</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>303</v>
@@ -15242,10 +15235,10 @@
         <v>369</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>218</v>
@@ -15259,10 +15252,10 @@
         <v>373</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>488</v>
@@ -15276,10 +15269,10 @@
         <v>376</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>339</v>
@@ -15293,10 +15286,10 @@
         <v>377</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>518</v>
@@ -15310,10 +15303,10 @@
         <v>814</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>254</v>
@@ -15327,7 +15320,7 @@
         <v>379</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>546</v>
@@ -15344,7 +15337,7 @@
         <v>381</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>553</v>
@@ -15361,10 +15354,10 @@
         <v>144</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>753</v>
@@ -15378,7 +15371,7 @@
         <v>382</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>825</v>
@@ -15395,10 +15388,10 @@
         <v>388</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>557</v>
@@ -15412,10 +15405,10 @@
         <v>389</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>557</v>
@@ -15429,10 +15422,10 @@
         <v>390</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>558</v>
@@ -15446,10 +15439,10 @@
         <v>392</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>32</v>
@@ -15463,10 +15456,10 @@
         <v>394</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>407</v>
@@ -15480,10 +15473,10 @@
         <v>395</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>478</v>
@@ -15500,10 +15493,10 @@
         <v>393</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>196</v>
@@ -15523,10 +15516,10 @@
         <v>145</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>298</v>
@@ -15540,7 +15533,7 @@
         <v>402</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>566</v>
@@ -15557,7 +15550,7 @@
         <v>403</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>567</v>
@@ -15574,10 +15567,10 @@
         <v>405</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>575</v>
@@ -15591,7 +15584,7 @@
         <v>406</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>576</v>
@@ -15608,10 +15601,10 @@
         <v>409</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>351</v>
@@ -15631,10 +15624,10 @@
         <v>411</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>494</v>
@@ -15651,10 +15644,10 @@
         <v>412</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>427</v>
@@ -15668,7 +15661,7 @@
         <v>414</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>86</v>
@@ -15685,10 +15678,10 @@
         <v>54</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>69</v>
@@ -15702,10 +15695,10 @@
         <v>161</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>69</v>
@@ -15719,10 +15712,10 @@
         <v>417</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>583</v>
@@ -15736,10 +15729,10 @@
         <v>418</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>584</v>
@@ -15753,10 +15746,10 @@
         <v>419</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>464</v>
@@ -15773,10 +15766,10 @@
         <v>56</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>413</v>
@@ -15790,7 +15783,7 @@
         <v>421</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>607</v>
@@ -15807,10 +15800,10 @@
         <v>422</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>597</v>
@@ -15824,10 +15817,10 @@
         <v>816</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>51</v>
@@ -15844,10 +15837,10 @@
         <v>423</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>461</v>
@@ -15861,10 +15854,10 @@
         <v>428</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>619</v>
@@ -15878,7 +15871,7 @@
         <v>424</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>15</v>
@@ -15895,10 +15888,10 @@
         <v>425</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>812</v>
@@ -15912,10 +15905,10 @@
         <v>817</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>426</v>
@@ -15929,10 +15922,10 @@
         <v>430</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>179</v>
@@ -15949,10 +15942,10 @@
         <v>431</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>511</v>
@@ -15966,10 +15959,10 @@
         <v>435</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>370</v>
@@ -15983,7 +15976,7 @@
         <v>58</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>647</v>
@@ -16000,10 +15993,10 @@
         <v>436</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>206</v>
@@ -16017,10 +16010,10 @@
         <v>438</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>226</v>
@@ -16034,10 +16027,10 @@
         <v>443</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>655</v>
@@ -16051,7 +16044,7 @@
         <v>445</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>662</v>
@@ -16068,10 +16061,10 @@
         <v>446</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>652</v>
@@ -16085,10 +16078,10 @@
         <v>452</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>245</v>
@@ -16102,10 +16095,10 @@
         <v>454</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>245</v>
@@ -16119,10 +16112,10 @@
         <v>455</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>594</v>
@@ -16136,10 +16129,10 @@
         <v>456</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>215</v>
@@ -16159,10 +16152,10 @@
         <v>462</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>235</v>
@@ -16176,10 +16169,10 @@
         <v>819</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>201</v>
@@ -16193,7 +16186,7 @@
         <v>463</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>710</v>
@@ -16210,10 +16203,10 @@
         <v>61</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>536</v>
@@ -16227,10 +16220,10 @@
         <v>789</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>346</v>
@@ -16244,10 +16237,10 @@
         <v>466</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>441</v>
@@ -16261,7 +16254,7 @@
         <v>470</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>0</v>
@@ -16278,10 +16271,10 @@
         <v>820</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>828</v>
@@ -16298,10 +16291,10 @@
         <v>471</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>496</v>
@@ -16318,10 +16311,10 @@
         <v>472</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>142</v>
@@ -16335,10 +16328,10 @@
         <v>473</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>22</v>
@@ -16355,7 +16348,7 @@
         <v>474</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>742</v>
@@ -16372,10 +16365,10 @@
         <v>790</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>676</v>
@@ -16389,10 +16382,10 @@
         <v>476</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>471</v>
@@ -16406,10 +16399,10 @@
         <v>477</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>637</v>
@@ -16423,10 +16416,10 @@
         <v>822</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>637</v>
@@ -16440,10 +16433,10 @@
         <v>481</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>313</v>
@@ -16457,10 +16450,10 @@
         <v>65</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>9</v>
@@ -16477,10 +16470,10 @@
         <v>482</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>465</v>
@@ -16494,10 +16487,10 @@
         <v>483</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>744</v>
@@ -16514,10 +16507,10 @@
         <v>484</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>195</v>
@@ -16531,10 +16524,10 @@
         <v>485</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>40</v>
@@ -16551,10 +16544,10 @@
         <v>487</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>236</v>
@@ -16574,10 +16567,10 @@
         <v>489</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>315</v>
@@ -16591,10 +16584,10 @@
         <v>490</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>736</v>
@@ -16608,7 +16601,7 @@
         <v>491</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -16616,7 +16609,7 @@
         <v>492</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
@@ -16624,7 +16617,7 @@
         <v>823</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -16632,7 +16625,7 @@
         <v>498</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
@@ -16640,7 +16633,7 @@
         <v>499</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -16648,7 +16641,7 @@
         <v>68</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
@@ -16656,7 +16649,7 @@
         <v>500</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
@@ -16664,7 +16657,7 @@
         <v>128</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
@@ -16680,7 +16673,7 @@
         <v>509</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -16688,7 +16681,7 @@
         <v>512</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -16696,7 +16689,7 @@
         <v>513</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -16704,7 +16697,7 @@
         <v>514</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -16712,7 +16705,7 @@
         <v>133</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -16720,7 +16713,7 @@
         <v>515</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -16728,7 +16721,7 @@
         <v>517</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -16736,7 +16729,7 @@
         <v>519</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -16752,7 +16745,7 @@
         <v>521</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -16760,7 +16753,7 @@
         <v>522</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -16768,7 +16761,7 @@
         <v>523</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -16776,7 +16769,7 @@
         <v>526</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -16784,7 +16777,7 @@
         <v>529</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -16792,7 +16785,7 @@
         <v>530</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -16800,7 +16793,7 @@
         <v>75</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -16808,7 +16801,7 @@
         <v>531</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -16816,7 +16809,7 @@
         <v>532</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -16824,7 +16817,7 @@
         <v>533</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -16832,7 +16825,7 @@
         <v>534</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -16840,7 +16833,7 @@
         <v>535</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -16848,7 +16841,7 @@
         <v>537</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -16856,7 +16849,7 @@
         <v>538</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -16864,7 +16857,7 @@
         <v>539</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -16872,7 +16865,7 @@
         <v>541</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -16880,7 +16873,7 @@
         <v>824</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -16888,7 +16881,7 @@
         <v>545</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -16896,7 +16889,7 @@
         <v>79</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -16904,7 +16897,7 @@
         <v>548</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -16912,7 +16905,7 @@
         <v>549</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -16920,7 +16913,7 @@
         <v>551</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -16928,7 +16921,7 @@
         <v>552</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -16936,7 +16929,7 @@
         <v>149</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -16944,7 +16937,7 @@
         <v>554</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -16952,7 +16945,7 @@
         <v>555</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -16960,7 +16953,7 @@
         <v>791</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -16968,7 +16961,7 @@
         <v>556</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -16976,7 +16969,7 @@
         <v>559</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -16984,7 +16977,7 @@
         <v>561</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -16992,7 +16985,7 @@
         <v>120</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -17000,7 +16993,7 @@
         <v>565</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -17008,7 +17001,7 @@
         <v>569</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -17016,7 +17009,7 @@
         <v>570</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -17024,7 +17017,7 @@
         <v>571</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -17032,7 +17025,7 @@
         <v>572</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -17040,7 +17033,7 @@
         <v>579</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -17048,7 +17041,7 @@
         <v>586</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -17056,7 +17049,7 @@
         <v>587</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -17064,7 +17057,7 @@
         <v>591</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -17072,7 +17065,7 @@
         <v>151</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -17080,7 +17073,7 @@
         <v>826</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -17088,7 +17081,7 @@
         <v>598</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -17096,7 +17089,7 @@
         <v>601</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -17104,7 +17097,7 @@
         <v>602</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -17112,7 +17105,7 @@
         <v>603</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -17120,7 +17113,7 @@
         <v>605</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -17128,7 +17121,7 @@
         <v>87</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -17136,7 +17129,7 @@
         <v>612</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -17144,7 +17137,7 @@
         <v>615</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -17152,7 +17145,7 @@
         <v>618</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -17160,7 +17153,7 @@
         <v>621</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -17168,7 +17161,7 @@
         <v>622</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -17176,7 +17169,7 @@
         <v>623</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -17184,7 +17177,7 @@
         <v>624</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -17192,7 +17185,7 @@
         <v>625</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -17200,7 +17193,7 @@
         <v>626</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -17208,7 +17201,7 @@
         <v>628</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -17216,7 +17209,7 @@
         <v>630</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -17224,7 +17217,7 @@
         <v>115</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -17232,7 +17225,7 @@
         <v>632</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -17240,7 +17233,7 @@
         <v>636</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -17248,7 +17241,7 @@
         <v>134</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -17256,7 +17249,7 @@
         <v>638</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -17264,7 +17257,7 @@
         <v>641</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
@@ -17272,7 +17265,7 @@
         <v>642</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -17280,7 +17273,7 @@
         <v>643</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -17288,7 +17281,7 @@
         <v>645</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -17296,7 +17289,7 @@
         <v>137</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -17304,7 +17297,7 @@
         <v>649</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -17312,7 +17305,7 @@
         <v>172</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -17320,7 +17313,7 @@
         <v>653</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
@@ -17328,7 +17321,7 @@
         <v>654</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -17336,7 +17329,7 @@
         <v>657</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -17344,7 +17337,7 @@
         <v>122</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
@@ -17352,7 +17345,7 @@
         <v>116</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
@@ -17360,7 +17353,7 @@
         <v>665</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
@@ -17368,7 +17361,7 @@
         <v>667</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
@@ -17376,7 +17369,7 @@
         <v>668</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
@@ -17384,7 +17377,7 @@
         <v>93</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
@@ -17392,7 +17385,7 @@
         <v>94</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
@@ -17400,7 +17393,7 @@
         <v>671</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
@@ -17408,7 +17401,7 @@
         <v>674</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -17416,7 +17409,7 @@
         <v>135</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -17424,7 +17417,7 @@
         <v>682</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -17432,7 +17425,7 @@
         <v>683</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
@@ -17440,7 +17433,7 @@
         <v>684</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
@@ -17448,7 +17441,7 @@
         <v>685</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
@@ -17456,7 +17449,7 @@
         <v>688</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
@@ -17464,7 +17457,7 @@
         <v>691</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -17472,7 +17465,7 @@
         <v>693</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -17480,7 +17473,7 @@
         <v>694</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
@@ -17488,7 +17481,7 @@
         <v>830</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
@@ -17496,7 +17489,7 @@
         <v>695</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
@@ -17504,7 +17497,7 @@
         <v>696</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
@@ -17512,7 +17505,7 @@
         <v>698</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
@@ -17520,7 +17513,7 @@
         <v>700</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
@@ -17528,7 +17521,7 @@
         <v>702</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -17536,7 +17529,7 @@
         <v>705</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -17544,7 +17537,7 @@
         <v>713</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
@@ -17552,7 +17545,7 @@
         <v>95</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
@@ -17560,7 +17553,7 @@
         <v>716</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -17568,7 +17561,7 @@
         <v>717</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
@@ -17576,7 +17569,7 @@
         <v>119</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
@@ -17584,7 +17577,7 @@
         <v>718</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
@@ -17592,7 +17585,7 @@
         <v>719</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -17600,7 +17593,7 @@
         <v>720</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
@@ -17608,7 +17601,7 @@
         <v>721</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
@@ -17616,7 +17609,7 @@
         <v>722</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
@@ -17624,7 +17617,7 @@
         <v>96</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
@@ -17632,7 +17625,7 @@
         <v>723</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
@@ -17640,7 +17633,7 @@
         <v>97</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
@@ -17648,7 +17641,7 @@
         <v>728</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
@@ -17656,7 +17649,7 @@
         <v>729</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
@@ -17664,7 +17657,7 @@
         <v>831</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
@@ -17672,7 +17665,7 @@
         <v>734</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
@@ -17680,7 +17673,7 @@
         <v>735</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
@@ -17688,7 +17681,7 @@
         <v>100</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
@@ -17696,7 +17689,7 @@
         <v>737</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
@@ -17704,7 +17697,7 @@
         <v>738</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
@@ -17712,7 +17705,7 @@
         <v>832</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
@@ -17720,7 +17713,7 @@
         <v>740</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
@@ -17728,7 +17721,7 @@
         <v>793</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
@@ -17736,7 +17729,7 @@
         <v>741</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
@@ -17744,7 +17737,7 @@
         <v>102</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
@@ -17752,7 +17745,7 @@
         <v>25</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
@@ -17760,7 +17753,7 @@
         <v>746</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
@@ -17768,7 +17761,7 @@
         <v>103</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
@@ -17776,7 +17769,7 @@
         <v>833</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
@@ -17784,7 +17777,7 @@
         <v>749</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
@@ -17792,7 +17785,7 @@
         <v>104</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
@@ -17800,7 +17793,7 @@
         <v>755</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
@@ -17808,7 +17801,7 @@
         <v>756</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
@@ -17816,7 +17809,7 @@
         <v>794</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
@@ -17824,7 +17817,7 @@
         <v>758</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
@@ -17832,7 +17825,7 @@
         <v>761</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
@@ -17840,7 +17833,7 @@
         <v>762</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
@@ -17848,7 +17841,7 @@
         <v>766</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
@@ -17856,7 +17849,7 @@
         <v>767</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
@@ -17864,7 +17857,7 @@
         <v>768</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
@@ -17872,7 +17865,7 @@
         <v>17</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
@@ -17880,7 +17873,7 @@
         <v>108</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
@@ -17888,7 +17881,7 @@
         <v>773</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
@@ -17896,7 +17889,7 @@
         <v>118</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
@@ -17904,7 +17897,7 @@
         <v>775</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
@@ -17912,7 +17905,7 @@
         <v>778</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
@@ -17920,7 +17913,7 @@
         <v>779</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
@@ -17928,7 +17921,7 @@
         <v>781</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
@@ -17936,7 +17929,7 @@
         <v>782</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
@@ -17944,7 +17937,7 @@
         <v>783</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
@@ -17952,11 +17945,10 @@
         <v>784</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H381" xr:uid="{12A096F0-99DD-4F20-9B63-144BD718379B}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
